--- a/data/MorganStanley/1.xlsx
+++ b/data/MorganStanley/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\MorganStanley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\MorganStanley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9DEDC-D6C6-4FD7-8E91-8709A0E3B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA220863-DDE6-4A83-8A1C-A41B560E86BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Reg.no</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Offer type</t>
-  </si>
-  <si>
-    <t>19BAI1019</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>UJJWAL PANDEY .</t>
   </si>
   <si>
-    <t>internship + fulltime</t>
-  </si>
-  <si>
-    <t>19BCE0049</t>
-  </si>
-  <si>
     <t>Abhishek Ramasubramanian</t>
-  </si>
-  <si>
-    <t>Internship only</t>
   </si>
 </sst>
 </file>
@@ -87,53 +66,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -151,12 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,45 +372,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
